--- a/CA_data/LC/Epct1/2021-22/07+CONTRA+COSTA.xlsx
+++ b/CA_data/LC/Epct1/2021-22/07+CONTRA+COSTA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="263">
   <si>
     <t>Contra Costa CountyLanguage Group Data - Countywidefor  2021 - 22</t>
   </si>
@@ -169,27 +169,27 @@
     <t>Nepali</t>
   </si>
   <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
     <t>Khmu</t>
   </si>
   <si>
-    <t>Armenian</t>
-  </si>
-  <si>
-    <t>Ukrainian</t>
-  </si>
-  <si>
     <t>Dutch</t>
   </si>
   <si>
     <t>Swedish</t>
   </si>
   <si>
+    <t>Ilocano</t>
+  </si>
+  <si>
     <t>Samoan</t>
   </si>
   <si>
-    <t>Ilocano</t>
-  </si>
-  <si>
     <t>Amharic</t>
   </si>
   <si>
@@ -205,24 +205,24 @@
     <t>Somali</t>
   </si>
   <si>
+    <t>Albanian</t>
+  </si>
+  <si>
     <t>Chaozhou (Chiuchow)</t>
   </si>
   <si>
-    <t>Albanian</t>
+    <t>Assyrian</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Kurdish (Kurdi, Kurmanji)</t>
   </si>
   <si>
     <t>Hmong</t>
   </si>
   <si>
-    <t>Kurdish (Kurdi, Kurmanji)</t>
-  </si>
-  <si>
-    <t>Assyrian</t>
-  </si>
-  <si>
-    <t>Swahili</t>
-  </si>
-  <si>
     <t>Lahu</t>
   </si>
   <si>
@@ -244,12 +244,66 @@
     <t>Marshallese</t>
   </si>
   <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>Creoles and pidgins, English based</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Sinhala; Sinhalese</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Catalan; Valencian</t>
+  </si>
+  <si>
+    <t>Konkani</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>Afro-Asiatic languages</t>
+  </si>
+  <si>
+    <t>Mayan Languages</t>
+  </si>
+  <si>
+    <t>North American Indian Languages</t>
+  </si>
+  <si>
     <t>Kashmiri</t>
   </si>
   <si>
+    <t>Fijian</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Berber languages</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
     <t>Mixteco</t>
   </si>
   <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
     <t>Contra Costa County Total</t>
   </si>
   <si>
@@ -385,15 +439,15 @@
     <t>19</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -529,10 +583,10 @@
     <t>29</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>30858</t>
@@ -1106,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,19 +1194,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1160,19 +1214,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1180,16 +1234,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1197,16 +1251,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1214,16 +1268,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1231,16 +1285,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1248,16 +1302,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1265,16 +1319,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1282,16 +1336,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1299,16 +1353,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1316,16 +1370,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1333,16 +1387,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1350,16 +1404,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1367,16 +1421,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1384,16 +1438,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1401,16 +1455,16 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1418,16 +1472,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1435,16 +1489,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1452,16 +1506,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1469,16 +1523,16 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1486,16 +1540,16 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1503,16 +1557,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1520,16 +1574,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1537,16 +1591,16 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1554,16 +1608,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1571,16 +1625,16 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1588,16 +1642,16 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1605,16 +1659,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1622,16 +1676,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1639,16 +1693,16 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1656,16 +1710,16 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1673,16 +1727,16 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1690,16 +1744,16 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1707,16 +1761,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1724,16 +1778,16 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1741,16 +1795,16 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1758,16 +1812,16 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1775,16 +1829,16 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1792,16 +1846,16 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1809,16 +1863,16 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1826,16 +1880,16 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1843,16 +1897,16 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1860,16 +1914,16 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1877,16 +1931,16 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1894,16 +1948,16 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1911,16 +1965,16 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1928,16 +1982,16 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1945,16 +1999,16 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1962,16 +2016,16 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1979,16 +2033,16 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1996,16 +2050,16 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2013,16 +2067,16 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2030,16 +2084,16 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2047,16 +2101,16 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2064,16 +2118,16 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2081,47 +2135,47 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>64</v>
       </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2129,16 +2183,16 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2146,16 +2200,16 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2163,16 +2217,16 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2180,16 +2234,16 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2197,13 +2251,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2211,13 +2265,13 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2225,13 +2279,13 @@
         <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2239,13 +2293,13 @@
         <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2253,13 +2307,13 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2267,13 +2321,13 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2281,74 +2335,218 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75" t="s">
-        <v>243</v>
+      <c r="F77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="F79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>231</v>
+      </c>
+      <c r="F93" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
